--- a/misinformation/Superspreaders.xlsx
+++ b/misinformation/Superspreaders.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hata/Documents/COVID Data Viz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hata/Documents/HaMinhTa.github.io/misinformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="463">
   <si>
     <t>Name</t>
   </si>
@@ -1630,6 +1630,10 @@
 February 24 post with a link to Limbaugh's site with false claims that the coronavirus was created in a lab as a bioweapon and that it is similar to the common cold.
 February 29 post with a link to Limbaugh's site with false claims that the coronavirus was created in a lab as a bioweapon and that it is similar to the common cold.
 RushLimbaugh.com did not respond to two emails from NewsGuard seeking comment on the site’s publication of false coronavirus claims.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zero Hedge was barred from Twitter after publishing an article relaying a conspiracy theory that a Chinese scientist might be to blame for the coronavirus outbreak. The article, posted under the pseudonym "Tyler Durden" (the fictional character played by Brad Pitt in the movie "Fight Club"), was titled "Is This Man Behind The Global Coronavirus Pandemic?" It included a photograph of a scientist at Wuhan's Institute of Virology and suggested that anyone curious about the epidemic might want to pay him "a visit," according to CBS News 
+</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1730,6 +1734,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2917,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView tabSelected="1" topLeftCell="B81" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4242,7 +4249,7 @@
       </c>
       <c r="E84" s="15"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="384" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4255,7 +4262,9 @@
       <c r="D85" s="15">
         <v>36670000</v>
       </c>
-      <c r="E85" s="15"/>
+      <c r="E85" s="20" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
